--- a/base/base_model.xlsx
+++ b/base/base_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PythonProjects\MFC\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A055BE-358C-45CE-891E-402F4E435D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EBA4C1-B4D4-4138-8D75-44F1CA22ADF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28980" yWindow="3555" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11670" yWindow="2280" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="status_specialists" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="program_services" sheetId="5" r:id="rId6"/>
     <sheet name="dop_service" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="238">
   <si>
     <t>Окно 9</t>
   </si>
@@ -1304,7 +1304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1796,7 +1796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BEB922-2970-4706-A758-052C9368F479}">
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
@@ -2074,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D68AB2A-8CD7-4EE2-9AF6-298570114B43}">
   <dimension ref="A2:B87"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2783,7 +2783,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2825,8 +2825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9317C3-3510-4BB1-ACDE-F7D4359075BB}">
   <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3099,6 +3099,9 @@
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>203</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
